--- a/Analisis/SPRINT/Sprint7.xlsx
+++ b/Analisis/SPRINT/Sprint7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\SPRINT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B49CF06-C825-4D82-AEFE-8CB8ED6E09ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358B07B5-2134-4D89-9F20-DD798703F625}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CF8223C1-468B-4922-B4D2-E853FF9B6A7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CF8223C1-468B-4922-B4D2-E853FF9B6A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Compras" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>Compras</t>
   </si>
@@ -49,18 +49,6 @@
     <t>Producto</t>
   </si>
   <si>
-    <t>Presentacion</t>
-  </si>
-  <si>
-    <t>Cantidad Presentacion</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Total Productos</t>
-  </si>
-  <si>
     <t>Antibacterial</t>
   </si>
   <si>
@@ -92,13 +80,148 @@
   </si>
   <si>
     <t>Generar un  codigo barras por ticket el cual pueda, escanearse y  puede determinar si a esa compra se asignara precio a mayores</t>
+  </si>
+  <si>
+    <t>Unidad de Compra</t>
+  </si>
+  <si>
+    <t>Unida de venta</t>
+  </si>
+  <si>
+    <t>idUnidadMedida</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>claveUnidadSAT</t>
+  </si>
+  <si>
+    <t>unidadSAT</t>
+  </si>
+  <si>
+    <t>descripcionSAT</t>
+  </si>
+  <si>
+    <t>Kilogramo</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Kilogramo neto</t>
+  </si>
+  <si>
+    <t>Gramo</t>
+  </si>
+  <si>
+    <t>GRM</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Litro</t>
+  </si>
+  <si>
+    <t>LTR</t>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>Mililitro</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>Pieza</t>
+  </si>
+  <si>
+    <t>H87</t>
+  </si>
+  <si>
+    <t>PZA</t>
+  </si>
+  <si>
+    <t>Agregar catalogo de Unidad de Compra</t>
+  </si>
+  <si>
+    <t>Cantidad Unitaria de Compra</t>
+  </si>
+  <si>
+    <t>Cantidad Comprada</t>
+  </si>
+  <si>
+    <t>Total Productos a Comprar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agregar los nuevos campos en los formularios de alta y actualización</t>
+  </si>
+  <si>
+    <t>Complemento de Venta</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>costo</t>
+  </si>
+  <si>
+    <t>Piezas</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>Piezas Complemento</t>
+  </si>
+  <si>
+    <t>Compra producto Acumulado</t>
+  </si>
+  <si>
+    <t>Costo del producto</t>
+  </si>
+  <si>
+    <t>Impresión</t>
+  </si>
+  <si>
+    <t>1  a 11</t>
+  </si>
+  <si>
+    <t>Escoba</t>
+  </si>
+  <si>
+    <t>trapeador</t>
+  </si>
+  <si>
+    <t>imprimir piezas del complemento</t>
+  </si>
+  <si>
+    <t>cubeta</t>
+  </si>
+  <si>
+    <t>13 a 50</t>
+  </si>
+  <si>
+    <t>51 a 100</t>
+  </si>
+  <si>
+    <t>100 a infinito</t>
+  </si>
+  <si>
+    <t>Rango Cubeta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +266,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +291,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -176,15 +310,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -195,6 +326,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,178 +754,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5561E258-0D5A-43AC-8196-86268693512B}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="30">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="30">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="K11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="K12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="K13" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="L13" t="s">
         <v>8</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
       </c>
       <c r="M13">
         <v>100</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13">
         <v>8.5</v>
       </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
       <c r="P13">
-        <f>O13*M13</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="Q13">
+        <f>P13*M13</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="L14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M14">
         <v>150</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14">
         <v>8.5</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2</v>
       </c>
-      <c r="P14">
-        <f>O14*M14</f>
+      <c r="Q14">
+        <f>P14*M14</f>
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="L15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M15">
         <v>200</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15">
         <v>8.5</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2</v>
       </c>
-      <c r="P15">
-        <f>O15*M15</f>
+      <c r="Q15">
+        <f>P15*M15</f>
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="L16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M16">
         <v>50</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16">
         <v>8.5</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2</v>
       </c>
-      <c r="P16">
-        <f>O16*M16</f>
+      <c r="Q16">
+        <f>P16*M16</f>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:17">
       <c r="L17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M17">
         <v>20</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17">
         <v>8.5</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>2</v>
       </c>
-      <c r="P17">
-        <f>O17*M17</f>
+      <c r="Q17">
+        <f>P17*M17</f>
         <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="11:17">
+      <c r="K26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="11:17">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>58</v>
+      </c>
+      <c r="N27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="11:17">
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="11:17">
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="11:17">
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="11:17">
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -783,38 +1068,234 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA772AD-CEA1-47FE-8085-296D93CC1B19}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
+    <row r="2" spans="1:15">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="29.25">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="K5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>4.5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <f>L7+G8</f>
+        <v>17</v>
+      </c>
+      <c r="N7">
+        <f>L7*C9</f>
+        <v>67.5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="13">
+        <v>12</v>
+      </c>
+      <c r="C8" s="13">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>G9+L8</f>
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f>M8*C17</f>
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="13">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="13">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="13">
+        <v>12</v>
+      </c>
+      <c r="C17" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="13">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="13">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K5:O5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Analisis/SPRINT/Sprint7.xlsx
+++ b/Analisis/SPRINT/Sprint7.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\SPRINT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DocumentosCMV\respaldo c\proyectos\comercializadora\Analisis\SPRINT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358B07B5-2134-4D89-9F20-DD798703F625}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CF8223C1-468B-4922-B4D2-E853FF9B6A7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Compras" sheetId="1" r:id="rId1"/>
@@ -220,7 +219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -310,11 +309,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,16 +322,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,6 +334,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,96 +753,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5561E258-0D5A-43AC-8196-86268693512B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="30">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:17" ht="29">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:17" ht="29">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -955,19 +955,19 @@
       </c>
     </row>
     <row r="26" spans="11:17">
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="N26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="8" t="s">
+      <c r="O26" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1067,84 +1067,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA772AD-CEA1-47FE-8085-296D93CC1B19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="68.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:15" ht="15.5">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="29.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:15" ht="28.5">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="9">
         <v>5.5</v>
       </c>
       <c r="F7" t="s">
@@ -1175,10 +1175,10 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>12</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="9">
         <v>5</v>
       </c>
       <c r="F8" t="s">
@@ -1209,10 +1209,10 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="9">
         <v>4.5</v>
       </c>
       <c r="F9" t="s">
@@ -1226,69 +1226,69 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="9">
         <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="B14" s="15"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="9">
         <v>6.5</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="13">
+      <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="9">
         <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="9">
         <v>4.5</v>
       </c>
     </row>

--- a/Analisis/SPRINT/Sprint7.xlsx
+++ b/Analisis/SPRINT/Sprint7.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DocumentosCMV\respaldo c\proyectos\comercializadora\Analisis\SPRINT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\SPRINT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627C5130-ED05-414A-990C-D91DDF80D250}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compras" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>Compras</t>
   </si>
@@ -214,12 +215,27 @@
   </si>
   <si>
     <t>Rango Cubeta</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Habilitar campo Cantidad Comprada</t>
+  </si>
+  <si>
+    <t>Al editar la compra una ves que es atendida por la hand held el total lo multiplica por la cantidad solicitada no por la cantidad recibida</t>
+  </si>
+  <si>
+    <t>Al intentar dar de alta un producto me marca el siguiente error</t>
+  </si>
+  <si>
+    <t>{{DapperRow, Estatus = '-1', error_procedure = 'SP_INSERTA_ACTUALIZA_PRODUCTOS', error_line = '91', Mensaje = 'Cannot insert explicit value for identity column in table 'Productos' when IDENTITY_INSERT is set to OFF.'}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -309,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -335,17 +351,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,8 +393,8 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -418,8 +437,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>27318</xdr:rowOff>
     </xdr:to>
@@ -446,6 +465,50 @@
         <a:xfrm>
           <a:off x="4419600" y="2657475"/>
           <a:ext cx="5781675" cy="2703843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227644</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>18095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEC5A90-5547-4FC2-8386-85A011E908F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="8001000"/>
+          <a:ext cx="7647619" cy="7638095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -753,23 +816,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -782,8 +846,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="29">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:17" ht="30">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -792,8 +856,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="29">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:17" ht="30">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -803,25 +867,25 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17">
       <c r="K12" s="1" t="s">
@@ -1054,6 +1118,40 @@
       </c>
       <c r="O31" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="60">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="30">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="120">
+      <c r="C40" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1067,16 +1165,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="68.7265625" customWidth="1"/>
+    <col min="1" max="1" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1089,24 +1187,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.5">
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.5">
+    <row r="4" spans="1:15" ht="29.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="7" t="s">
@@ -1297,5 +1395,6 @@
     <mergeCell ref="K5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analisis/SPRINT/Sprint7.xlsx
+++ b/Analisis/SPRINT/Sprint7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\SPRINT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627C5130-ED05-414A-990C-D91DDF80D250}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25BF438-9159-4078-92B1-DDE67539CBE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>Compras</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>{{DapperRow, Estatus = '-1', error_procedure = 'SP_INSERTA_ACTUALIZA_PRODUCTOS', error_line = '91', Mensaje = 'Cannot insert explicit value for identity column in table 'Productos' when IDENTITY_INSERT is set to OFF.'}}</t>
+  </si>
+  <si>
+    <t>en el modulo de ventas cuando cambias  forma de pago a otra en el select se demora como 2 a 3 segundos en hacer el cambio</t>
   </si>
 </sst>
 </file>
@@ -325,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -357,6 +360,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -364,7 +370,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,15 +482,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>227644</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>18095</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85639</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -507,8 +513,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7239000" y="8001000"/>
-          <a:ext cx="7647619" cy="7638095"/>
+          <a:off x="7772401" y="8001000"/>
+          <a:ext cx="4105274" cy="3895639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>74611</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DECA3819-A92A-4464-8731-A4A35F0CC6AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772400" y="12192000"/>
+          <a:ext cx="6323011" cy="5972175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -877,15 +927,15 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17">
       <c r="K12" s="1" t="s">
@@ -1137,7 +1187,7 @@
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="15" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1145,13 +1195,21 @@
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="120">
-      <c r="C40" s="17" t="s">
+    <row r="40" spans="2:3" ht="90">
+      <c r="C40" s="15" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="45">
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1198,13 +1256,13 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="7" t="s">

--- a/Analisis/SPRINT/Sprint7.xlsx
+++ b/Analisis/SPRINT/Sprint7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\SPRINT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25BF438-9159-4078-92B1-DDE67539CBE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6D4B9A-DB76-4355-ACA6-F4F766C98D52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,14 +363,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -927,15 +927,15 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:17">
       <c r="K12" s="1" t="s">
@@ -1208,7 +1208,7 @@
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1256,13 +1256,13 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="7" t="s">

--- a/Analisis/SPRINT/Sprint7.xlsx
+++ b/Analisis/SPRINT/Sprint7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\SPRINT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6D4B9A-DB76-4355-ACA6-F4F766C98D52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78908E71-DEAC-4C3B-B952-3F4DA25B388F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>Compras</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>en el modulo de ventas cuando cambias  forma de pago a otra en el select se demora como 2 a 3 segundos en hacer el cambio</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -290,7 +293,7 @@
       <name val="Avenir Book"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +318,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -328,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -372,6 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1170,36 +1180,48 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:10">
       <c r="C33" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:10">
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" ht="60">
+      <c r="D34" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="60">
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" ht="30">
+      <c r="D35" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="30">
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" ht="90">
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="90">
       <c r="C40" s="15" t="s">
         <v>67</v>
       </c>
